--- a/assets/upload/1578361134Alumni-2_(1).xlsx
+++ b/assets/upload/1578361134Alumni-2_(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\siluni-ts\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C351C69-6034-42B8-8290-444E9B2DAB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B99EC87-37BA-4A53-B576-FD8B0E71679A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{91B26D3F-09CD-463D-8530-4F7A088E41A1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nama</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>Muhammad Afghan Amin</t>
   </si>
 </sst>
 </file>
@@ -454,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE21F96-7C77-43DE-A6D5-EEE6CC0378D4}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,23 +520,6 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>3145141981</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>2014</v>
-      </c>
-      <c r="G3">
-        <v>2019</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
